--- a/data/iris.xlsx
+++ b/data/iris.xlsx
@@ -1,79 +1,373 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Documents/Training/Predictive Analtyics with Orange/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Documents/Documents – Alfred’s MacBook Pro/Training/WSQ - Data Mining and Machine Learning with Orange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876E6EF-BE77-F94D-8885-EE9CE84F60AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1ED75A-99EB-F549-8ADD-4F2D34B17502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20680" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="iris" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
   <si>
-    <t>sepal length</t>
+    <t>sepal.length</t>
   </si>
   <si>
-    <t>sepal width</t>
+    <t>sepal.width</t>
   </si>
   <si>
-    <t>petal length</t>
+    <t>petal.length</t>
   </si>
   <si>
-    <t>petal width</t>
+    <t>petal.width</t>
   </si>
   <si>
-    <t>iris</t>
+    <t>variety</t>
   </si>
   <si>
-    <t>Iris-setosa</t>
+    <t>Setosa</t>
   </si>
   <si>
-    <t>Iris-versicolor</t>
+    <t>Versicolor</t>
   </si>
   <si>
-    <t>Iris-virginica</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>target</t>
+    <t>Virginica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -81,18 +375,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -115,44 +598,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -202,9 +685,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -260,178 +743,152 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -451,28 +908,28 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1.4</v>
@@ -486,13 +943,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -503,13 +960,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -520,13 +977,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D6">
         <v>0.2</v>
@@ -537,16 +994,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -554,16 +1011,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B8">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -571,16 +1028,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>3.4</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -588,13 +1045,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B10">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
         <v>0.2</v>
@@ -605,16 +1062,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B11">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -622,16 +1079,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="B12">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="C12">
         <v>1.5</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -639,13 +1096,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="B13">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D13">
         <v>0.2</v>
@@ -659,13 +1116,13 @@
         <v>4.8</v>
       </c>
       <c r="B14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -673,13 +1130,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -690,16 +1147,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -707,16 +1164,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C17">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -724,13 +1181,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="B18">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D18">
         <v>0.4</v>
@@ -741,16 +1198,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B19">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="C19">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -758,13 +1215,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="B20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C20">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D20">
         <v>0.3</v>
@@ -775,13 +1232,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B21">
         <v>3.8</v>
       </c>
       <c r="C21">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D21">
         <v>0.3</v>
@@ -792,16 +1249,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B22">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D22">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -809,16 +1266,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B23">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="C23">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D23">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -826,16 +1283,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B24">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -843,16 +1300,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B25">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D25">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -860,16 +1317,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="B26">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C26">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -877,13 +1334,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D27">
         <v>0.2</v>
@@ -897,13 +1354,13 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C28">
         <v>1.6</v>
       </c>
       <c r="D28">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -911,16 +1368,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="B29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C29">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D29">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -931,10 +1388,10 @@
         <v>5.2</v>
       </c>
       <c r="B30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D30">
         <v>0.2</v>
@@ -945,13 +1402,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="B31">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C31">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D31">
         <v>0.2</v>
@@ -962,10 +1419,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="B32">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C32">
         <v>1.6</v>
@@ -979,16 +1436,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="B33">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D33">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -996,16 +1453,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="B34">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C34">
         <v>1.5</v>
       </c>
       <c r="D34">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -1013,16 +1470,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="B35">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D35">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
@@ -1030,13 +1487,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B36">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="C36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D36">
         <v>0.2</v>
@@ -1047,16 +1504,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C37">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D37">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1064,13 +1521,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C38">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D38">
         <v>0.2</v>
@@ -1081,16 +1538,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B39">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C39">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D39">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -1098,16 +1555,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B40">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D40">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -1115,13 +1572,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C41">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D41">
         <v>0.2</v>
@@ -1132,16 +1589,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C42">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1149,10 +1606,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B43">
-        <v>3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C43">
         <v>1.3</v>
@@ -1166,16 +1623,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B44">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="C44">
         <v>1.3</v>
       </c>
       <c r="D44">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1183,16 +1640,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C45">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D45">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1200,16 +1657,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B46">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C46">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D46">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1217,16 +1674,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="B47">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D47">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1234,16 +1691,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="C48">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D48">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1251,13 +1708,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B49">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="C49">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D49">
         <v>0.2</v>
@@ -1268,13 +1725,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4.5999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="B50">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="C50">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D50">
         <v>0.2</v>
@@ -1285,13 +1742,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="C51">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D51">
         <v>0.2</v>
@@ -1302,33 +1759,33 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C52">
+        <v>4.7</v>
+      </c>
+      <c r="D52">
         <v>1.4</v>
       </c>
-      <c r="D52">
-        <v>0.2</v>
-      </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="B53">
         <v>3.2</v>
       </c>
       <c r="C53">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D53">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1336,13 +1793,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="B54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C54">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D54">
         <v>1.5</v>
@@ -1353,16 +1810,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="B55">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C55">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1370,16 +1827,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="B56">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D56">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -1387,16 +1844,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="B57">
         <v>2.8</v>
       </c>
       <c r="C57">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D57">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1404,16 +1861,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="B58">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="C58">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D58">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1421,16 +1878,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>6.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B59">
+        <v>2.4</v>
+      </c>
+      <c r="C59">
         <v>3.3</v>
       </c>
-      <c r="C59">
-        <v>4.7</v>
-      </c>
       <c r="D59">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -1438,16 +1895,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>4.9000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="B60">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -1455,16 +1912,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="B61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C61">
-        <v>4.5999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D61">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -1472,16 +1929,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D62">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -1489,16 +1946,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -1506,16 +1963,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C64">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -1523,16 +1980,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="B65">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -1540,16 +1997,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="B66">
         <v>2.9</v>
       </c>
       <c r="C66">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D66">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -1557,16 +2014,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="B67">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -1574,16 +2031,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="B68">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D68">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -1591,16 +2048,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C69">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D69">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -1608,16 +2065,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="B70">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C70">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -1625,16 +2082,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="B71">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C71">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D71">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -1642,16 +2099,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="B72">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="C72">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D72">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -1659,16 +2116,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="B73">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C73">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -1676,16 +2133,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="B74">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D74">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -1693,16 +2150,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="B75">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C75">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="D75">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -1710,16 +2167,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="B76">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C76">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D76">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -1727,16 +2184,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="B77">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D77">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -1744,13 +2201,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C78">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D78">
         <v>1.4</v>
@@ -1761,16 +2218,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="B79">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -1778,16 +2235,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D80">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -1795,16 +2252,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="B81">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="C81">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D81">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
@@ -1812,16 +2269,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="B82">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
@@ -1835,10 +2292,10 @@
         <v>2.4</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D83">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
@@ -1846,16 +2303,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="B84">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="C84">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -1863,16 +2320,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="B85">
         <v>2.7</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D85">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
@@ -1880,16 +2337,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="B86">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D86">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -1897,16 +2354,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C87">
         <v>4.5</v>
       </c>
       <c r="D87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
@@ -1914,16 +2371,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="B88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C88">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D88">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -1931,16 +2388,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="B89">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C89">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D89">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
@@ -1948,13 +2405,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="B90">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D90">
         <v>1.3</v>
@@ -1965,13 +2422,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C91">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>1.3</v>
@@ -1985,13 +2442,13 @@
         <v>5.5</v>
       </c>
       <c r="B92">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D92">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -1999,16 +2456,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="B93">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D93">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -2016,16 +2473,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C94">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -2033,16 +2490,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D95">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -2050,16 +2507,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="B96">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="C96">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -2067,16 +2524,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="B97">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>4.2</v>
       </c>
       <c r="D97">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -2087,13 +2544,13 @@
         <v>5.7</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C98">
         <v>4.2</v>
       </c>
       <c r="D98">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -2101,13 +2558,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="B99">
         <v>2.9</v>
       </c>
       <c r="C99">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D99">
         <v>1.3</v>
@@ -2118,16 +2575,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>6.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B100">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -2135,16 +2592,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="B101">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D101">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -2152,33 +2609,33 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="B102">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="C102">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="B103">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D103">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -2186,16 +2643,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="B104">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="D104">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -2203,16 +2660,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C105">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="D105">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -2220,16 +2677,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="B106">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D106">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -2237,16 +2694,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="D107">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -2254,16 +2711,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>7.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C108">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="D108">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2271,16 +2728,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>4.9000000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="B109">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C109">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="D109">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
@@ -2288,13 +2745,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="B110">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C110">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="D110">
         <v>1.8</v>
@@ -2305,16 +2762,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="B111">
+        <v>3.6</v>
+      </c>
+      <c r="C111">
+        <v>6.1</v>
+      </c>
+      <c r="D111">
         <v>2.5</v>
-      </c>
-      <c r="C111">
-        <v>5.8</v>
-      </c>
-      <c r="D111">
-        <v>1.8</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
@@ -2322,16 +2779,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="B112">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="C112">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D112">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
@@ -2339,16 +2796,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B113">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="C113">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -2356,16 +2813,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="B114">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D114">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -2373,16 +2830,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C115">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D115">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -2390,16 +2847,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="B116">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -2407,16 +2864,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="B117">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C117">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D117">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -2424,16 +2881,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="B118">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D118">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2441,16 +2898,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="C119">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="D119">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -2461,13 +2918,13 @@
         <v>7.7</v>
       </c>
       <c r="B120">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="C120">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D120">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -2475,16 +2932,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C121">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -2492,16 +2949,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="B122">
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D122">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -2509,16 +2966,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="B123">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C123">
-        <v>5.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D123">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -2526,13 +2983,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="B124">
         <v>2.8</v>
       </c>
       <c r="C124">
-        <v>4.9000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -2543,16 +3000,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="B125">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C125">
-        <v>6.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -2560,16 +3017,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="B126">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="C126">
-        <v>4.9000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="D126">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -2577,16 +3034,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="B127">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C127">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
@@ -2594,13 +3051,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="B128">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="D128">
         <v>1.8</v>
@@ -2611,13 +3068,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B129">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D129">
         <v>1.8</v>
@@ -2628,16 +3085,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C130">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="D130">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -2645,16 +3102,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="B131">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D131">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
@@ -2662,16 +3119,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C132">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D132">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -2679,16 +3136,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="B133">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="C133">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -2696,16 +3153,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="B134">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="C134">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -2713,16 +3170,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="B135">
         <v>2.8</v>
       </c>
       <c r="C135">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D135">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -2730,16 +3187,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="B136">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="C136">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="D136">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -2747,16 +3204,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
+        <v>7.7</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
         <v>6.1</v>
       </c>
-      <c r="B137">
-        <v>2.6</v>
-      </c>
-      <c r="C137">
-        <v>5.6</v>
-      </c>
       <c r="D137">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -2764,16 +3221,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C138">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="D138">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -2781,16 +3238,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="B139">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C139">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D139">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -2798,13 +3255,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="B140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="D140">
         <v>1.8</v>
@@ -2815,16 +3272,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C141">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D141">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -2832,16 +3289,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="B142">
         <v>3.1</v>
       </c>
       <c r="C142">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D142">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -2849,16 +3306,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="B143">
         <v>3.1</v>
       </c>
       <c r="C143">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D143">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -2866,16 +3323,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="B144">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="C144">
         <v>5.0999999999999996</v>
       </c>
       <c r="D144">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -2883,16 +3340,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="B145">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="C145">
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="D145">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -2900,16 +3357,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="B146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C146">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="D146">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -2920,13 +3377,13 @@
         <v>6.7</v>
       </c>
       <c r="B147">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="D147">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -2934,16 +3391,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C148">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D148">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -2951,16 +3408,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="B149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -2968,16 +3425,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C150">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -2985,39 +3442,22 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="B151">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C151">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D151">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>5.9</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="C152">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D152">
-        <v>1.8</v>
-      </c>
-      <c r="E152" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>